--- a/spliced/struggle/2023-03-25_18-15-22/data_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-22/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.052180111408234</v>
+        <v>1.136592060327531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7846121788024902</v>
+        <v>-0.5052947402000403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7869958281517029</v>
+        <v>1.006910741329194</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0087048299610614</v>
+        <v>-5.196477890014648</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0300851128995418</v>
+        <v>-3.036305665969849</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0146607663482427</v>
+        <v>4.782464027404785</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.117865264415741</v>
+        <v>-3.102525949478149</v>
       </c>
       <c r="D3" t="n">
-        <v>1.205321788787842</v>
+        <v>-7.741808414459229</v>
       </c>
       <c r="E3" t="n">
-        <v>1.084130614995957</v>
+        <v>0.0443248748779296</v>
       </c>
       <c r="F3" t="n">
-        <v>0.040775254368782</v>
+        <v>-5.916993618011475</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0453567430377006</v>
+        <v>-3.426343202590942</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0752891451120376</v>
+        <v>-1.53388261795044</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.217162013053892</v>
+        <v>-0.8462124168872824</v>
       </c>
       <c r="D4" t="n">
-        <v>1.387937068939209</v>
+        <v>-1.410848729312418</v>
       </c>
       <c r="E4" t="n">
-        <v>3.501545310020452</v>
+        <v>-6.25395178794861</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.233197808265686</v>
+        <v>0.4529565870761871</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3972151279449463</v>
+        <v>0.4115704596042633</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1840231567621231</v>
+        <v>-1.645212769508362</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.8415670692920691</v>
+        <v>4.942803740501414</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2235499024391199</v>
+        <v>-7.510328069329272</v>
       </c>
       <c r="E5" t="n">
-        <v>5.247247695922851</v>
+        <v>-1.564183712005606</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.600466966629028</v>
+        <v>3.627165079116821</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.80984103679657</v>
+        <v>3.22368860244751</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5542075037956238</v>
+        <v>-1.423163294792175</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.9400249123573342</v>
+        <v>3.684623420238498</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.967644095420841</v>
+        <v>-6.547261834144596</v>
       </c>
       <c r="E6" t="n">
-        <v>3.631645083427433</v>
+        <v>2.809367418289182</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.736370801925659</v>
+        <v>1.755779385566711</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.40969705581665</v>
+        <v>0.2069306075572967</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9097310900688172</v>
+        <v>-0.0197004042565822</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.136592060327531</v>
+        <v>-2.489120721817007</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5052947402000403</v>
+        <v>-3.182153344154361</v>
       </c>
       <c r="E7" t="n">
-        <v>1.006910741329194</v>
+        <v>2.89736366271973</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.196477890014648</v>
+        <v>1.32527220249176</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.036305665969849</v>
+        <v>3.478113889694214</v>
       </c>
       <c r="H7" t="n">
-        <v>4.782464027404785</v>
+        <v>4.531856536865234</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.102525949478149</v>
+        <v>-2.860559403896316</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.741808414459229</v>
+        <v>-2.504158109426502</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0443248748779296</v>
+        <v>1.881697505712511</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.916993618011475</v>
+        <v>-0.9728028774261476</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.426343202590942</v>
+        <v>3.588375091552734</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.53388261795044</v>
+        <v>-0.8292495608329773</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.8462124168872824</v>
+        <v>2.841274738311764</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.410848729312418</v>
+        <v>-2.992074728012082</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.25395178794861</v>
+        <v>1.633560657501217</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4529565870761871</v>
+        <v>0.9275988936424256</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4115704596042633</v>
+        <v>3.912744522094727</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.645212769508362</v>
+        <v>-0.8049677014350891</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.942803740501414</v>
+        <v>0.4830425977706894</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.510328069329272</v>
+        <v>-0.9799425601959225</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.564183712005606</v>
+        <v>-0.1168481409549758</v>
       </c>
       <c r="F10" t="n">
-        <v>3.627165079116821</v>
+        <v>0.65958172082901</v>
       </c>
       <c r="G10" t="n">
-        <v>3.22368860244751</v>
+        <v>-0.1707368344068527</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.423163294792175</v>
+        <v>0.1705841124057769</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.684623420238498</v>
+        <v>2.629005432128906</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.547261834144596</v>
+        <v>-1.44602632522583</v>
       </c>
       <c r="E11" t="n">
-        <v>2.809367418289182</v>
+        <v>6.930900573730469</v>
       </c>
       <c r="F11" t="n">
-        <v>1.755779385566711</v>
+        <v>-0.0062613687478005</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2069306075572967</v>
+        <v>-1.035263895988464</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0197004042565822</v>
+        <v>2.51661205291748</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.489120721817007</v>
+        <v>0.08325040340423584</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.182153344154361</v>
+        <v>-1.20862039923668</v>
       </c>
       <c r="E12" t="n">
-        <v>2.89736366271973</v>
+        <v>1.943817764520645</v>
       </c>
       <c r="F12" t="n">
-        <v>1.32527220249176</v>
+        <v>-0.0650571510195732</v>
       </c>
       <c r="G12" t="n">
-        <v>3.478113889694214</v>
+        <v>-0.7725918292999268</v>
       </c>
       <c r="H12" t="n">
-        <v>4.531856536865234</v>
+        <v>-0.6349944472312927</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.860559403896316</v>
+        <v>-1.441726684570314</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.504158109426502</v>
+        <v>-0.9328206181526182</v>
       </c>
       <c r="E13" t="n">
-        <v>1.881697505712511</v>
+        <v>5.954500854015357</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9728028774261476</v>
+        <v>1.70736837387085</v>
       </c>
       <c r="G13" t="n">
-        <v>3.588375091552734</v>
+        <v>-1.938886284828186</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.8292495608329773</v>
+        <v>-2.866790533065796</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.841274738311764</v>
+        <v>-0.886786460876462</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.992074728012082</v>
+        <v>0.562802791595463</v>
       </c>
       <c r="E14" t="n">
-        <v>1.633560657501217</v>
+        <v>2.521360546350466</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9275988936424256</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="G14" t="n">
-        <v>3.912744522094727</v>
+        <v>-3.644727468490601</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.8049677014350891</v>
+        <v>-0.365755558013916</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4830425977706894</v>
+        <v>0.6777331829071001</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9799425601959225</v>
+        <v>-1.399440765380847</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1168481409549758</v>
+        <v>0.4171198606491046</v>
       </c>
       <c r="F15" t="n">
-        <v>0.65958172082901</v>
+        <v>-0.09926560521125791</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1707368344068527</v>
+        <v>-5.367214679718018</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1705841124057769</v>
+        <v>-0.7640396952629089</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.629005432128906</v>
+        <v>1.204387292265894</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.44602632522583</v>
+        <v>-3.619132399559024</v>
       </c>
       <c r="E16" t="n">
-        <v>6.930900573730469</v>
+        <v>-0.313209235668175</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0062613687478005</v>
+        <v>0.1264491081237793</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.035263895988464</v>
+        <v>-3.759417533874512</v>
       </c>
       <c r="H16" t="n">
-        <v>2.51661205291748</v>
+        <v>-0.6985244154930115</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.08325040340423584</v>
+        <v>1.067639499902725</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.20862039923668</v>
+        <v>-3.350790739059448</v>
       </c>
       <c r="E17" t="n">
-        <v>1.943817764520645</v>
+        <v>-3.138641357421875</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0650571510195732</v>
+        <v>0.3510948121547699</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.7725918292999268</v>
+        <v>-1.851074457168579</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.6349944472312927</v>
+        <v>-0.6296493411064148</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.441726684570314</v>
+        <v>3.527233093976973</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9328206181526182</v>
+        <v>-5.226221919059754</v>
       </c>
       <c r="E18" t="n">
-        <v>5.954500854015357</v>
+        <v>-3.07070302963257</v>
       </c>
       <c r="F18" t="n">
-        <v>1.70736837387085</v>
+        <v>-0.2174680233001709</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.938886284828186</v>
+        <v>1.732872009277344</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.866790533065796</v>
+        <v>-2.470797300338745</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.886786460876462</v>
+        <v>7.073627471923828</v>
       </c>
       <c r="D19" t="n">
-        <v>0.562802791595463</v>
+        <v>-3.28519868850708</v>
       </c>
       <c r="E19" t="n">
-        <v>2.521360546350466</v>
+        <v>-0.3319654464721679</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0068722339347004</v>
+        <v>1.422094345092773</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.644727468490601</v>
+        <v>4.435187339782715</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.365755558013916</v>
+        <v>0.8324565887451172</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6777331829071001</v>
+        <v>2.874565660953519</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.399440765380847</v>
+        <v>-0.3619521260261513</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4171198606491046</v>
+        <v>-1.012392401695252</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.09926560521125791</v>
+        <v>2.657721996307373</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.367214679718018</v>
+        <v>5.389358520507812</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.7640396952629089</v>
+        <v>2.652835130691528</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.204387292265894</v>
+        <v>-6.492176651954649</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.619132399559024</v>
+        <v>-0.7134745419025422</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.313209235668175</v>
+        <v>7.389736890792848</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1264491081237793</v>
+        <v>0.5099197626113892</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.759417533874512</v>
+        <v>0.4361577928066253</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.6985244154930115</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.067639499902725</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-3.350790739059448</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-3.138641357421875</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.3510948121547699</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-1.851074457168579</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.6296493411064148</v>
+        <v>2.850908041000366</v>
       </c>
     </row>
   </sheetData>
